--- a/data/마케팅팀_판매실적_통합.xlsx
+++ b/data/마케팅팀_판매실적_통합.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
   <si>
     <t>제품명</t>
   </si>
@@ -46,6 +46,12 @@
     <t>애플와치4</t>
   </si>
   <si>
+    <t>노트10</t>
+  </si>
+  <si>
+    <t>김재경</t>
+  </si>
+  <si>
     <t>신은영</t>
   </si>
   <si>
@@ -55,10 +61,13 @@
     <t>홍성민</t>
   </si>
   <si>
+    <t>용산구</t>
+  </si>
+  <si>
+    <t>구로구</t>
+  </si>
+  <si>
     <t>영등포</t>
-  </si>
-  <si>
-    <t>용산구</t>
   </si>
   <si>
     <t>성동구</t>
@@ -419,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,22 +462,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="E2">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F2">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="G2">
-        <v>174</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -476,22 +485,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="E3">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="F3">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="G3">
-        <v>292</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -499,159 +508,251 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="E4">
-        <v>383</v>
+        <v>316</v>
       </c>
       <c r="F4">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="G4">
-        <v>323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="F5">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G5">
-        <v>137</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>273</v>
+        <v>168</v>
       </c>
       <c r="E6">
-        <v>241</v>
+        <v>102</v>
       </c>
       <c r="F6">
-        <v>296</v>
+        <v>149</v>
       </c>
       <c r="G6">
-        <v>217</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>385</v>
+        <v>231</v>
       </c>
       <c r="E7">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="F7">
-        <v>355</v>
+        <v>277</v>
       </c>
       <c r="G7">
-        <v>331</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>154</v>
+        <v>365</v>
       </c>
       <c r="E8">
-        <v>108</v>
+        <v>383</v>
       </c>
       <c r="F8">
-        <v>155</v>
+        <v>308</v>
       </c>
       <c r="G8">
-        <v>114</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E9">
-        <v>223</v>
+        <v>123</v>
       </c>
       <c r="F9">
-        <v>213</v>
+        <v>120</v>
       </c>
       <c r="G9">
-        <v>202</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10">
+        <v>273</v>
+      </c>
+      <c r="E10">
+        <v>241</v>
+      </c>
+      <c r="F10">
+        <v>296</v>
+      </c>
+      <c r="G10">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>385</v>
+      </c>
+      <c r="E11">
+        <v>316</v>
+      </c>
+      <c r="F11">
+        <v>355</v>
+      </c>
+      <c r="G11">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>154</v>
+      </c>
+      <c r="E12">
+        <v>108</v>
+      </c>
+      <c r="F12">
+        <v>155</v>
+      </c>
+      <c r="G12">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>200</v>
+      </c>
+      <c r="E13">
+        <v>223</v>
+      </c>
+      <c r="F13">
+        <v>213</v>
+      </c>
+      <c r="G13">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
         <v>350</v>
       </c>
-      <c r="E10">
+      <c r="E14">
         <v>340</v>
       </c>
-      <c r="F10">
+      <c r="F14">
         <v>377</v>
       </c>
-      <c r="G10">
+      <c r="G14">
         <v>392</v>
       </c>
     </row>
